--- a/timesheet_DarshanaPitroda_S321472.xlsx
+++ b/timesheet_DarshanaPitroda_S321472.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pitro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD61DD10-9CF9-4BAC-941B-C059C8029660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352D7709-C36F-4205-A4C8-69FDEAED87FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="3" xr2:uid="{9E5CD27E-B1F7-41B1-90CA-155D78CF2315}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="4" xr2:uid="{9E5CD27E-B1F7-41B1-90CA-155D78CF2315}"/>
   </bookViews>
   <sheets>
     <sheet name="Week-1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t xml:space="preserve">Hour 1 : </t>
   </si>
@@ -200,6 +200,39 @@
   </si>
   <si>
     <t>1 hours team session on N-tier architecture.</t>
+  </si>
+  <si>
+    <t>1 hour reading about angular</t>
+  </si>
+  <si>
+    <t>1 hour reading about angular commands and crud operations</t>
+  </si>
+  <si>
+    <t>1 hour reading about angular 3 layer architecture</t>
+  </si>
+  <si>
+    <t>3 hours in doing weekly task creating angular crud operations</t>
+  </si>
+  <si>
+    <t>1 hour resolving errors and understanding crud operations</t>
+  </si>
+  <si>
+    <t>1 hour doing tutorial task about employee in angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hours in doing weekly task and working on different layers </t>
+  </si>
+  <si>
+    <t>1 hour team session on software project discussion on selecting canvas</t>
+  </si>
+  <si>
+    <t>1 hour team session on creating backlog items for project</t>
+  </si>
+  <si>
+    <t>1 hours team session on how to apply crud operations and how to work on later in software project</t>
+  </si>
+  <si>
+    <t>Week 5 activity</t>
   </si>
 </sst>
 </file>
@@ -1268,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F0CCD-5235-4FF1-A114-E7E4F7219828}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1508,12 +1541,242 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB137BFC-E9EC-4B9D-ABAD-30A1515BBB95}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/timesheet_DarshanaPitroda_S321472.xlsx
+++ b/timesheet_DarshanaPitroda_S321472.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pitro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352D7709-C36F-4205-A4C8-69FDEAED87FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCC878A-BFAF-4E64-82A8-B040ABB4FC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="4" xr2:uid="{9E5CD27E-B1F7-41B1-90CA-155D78CF2315}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="6" xr2:uid="{9E5CD27E-B1F7-41B1-90CA-155D78CF2315}"/>
   </bookViews>
   <sheets>
     <sheet name="Week-1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t xml:space="preserve">Hour 1 : </t>
   </si>
@@ -233,6 +233,105 @@
   </si>
   <si>
     <t>Week 5 activity</t>
+  </si>
+  <si>
+    <t>Week 6 activity</t>
+  </si>
+  <si>
+    <t>2 hour spending on angular ui components working for project</t>
+  </si>
+  <si>
+    <t>1 hour spending time in trello creating user stories</t>
+  </si>
+  <si>
+    <t>2 hour reading about angular 3 layer architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 hours in doing weekly task </t>
+  </si>
+  <si>
+    <t>2 hour spending with errors in the client app</t>
+  </si>
+  <si>
+    <t>1 hour doing tutorial task about sorting, filtering , paging and grouping</t>
+  </si>
+  <si>
+    <t>2 hours working with sql express and migrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour team session on crud operations </t>
+  </si>
+  <si>
+    <t>1 hour team session about migrations and database connections</t>
+  </si>
+  <si>
+    <t>1 hours team session on how to work in one IDE with all the project requirements</t>
+  </si>
+  <si>
+    <t>Week 7 activity</t>
+  </si>
+  <si>
+    <t>1 hour created project ui protoype</t>
+  </si>
+  <si>
+    <t>1 hour reading sql commands</t>
+  </si>
+  <si>
+    <t>2 hour reading about securities and managing user roles</t>
+  </si>
+  <si>
+    <t>3 hours working on dependency injection, error handling, work management and new technologies</t>
+  </si>
+  <si>
+    <t>1 hour worked with error logging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour doing working with angular app </t>
+  </si>
+  <si>
+    <t>2 hours creating project app  and intergrating models, 3 layer archiecture, login component creation and api call</t>
+  </si>
+  <si>
+    <t>1 hour team session on how to implement the angular with web api</t>
+  </si>
+  <si>
+    <t>1 hour team session on work on allocated task</t>
+  </si>
+  <si>
+    <t>1 hours team session on resolving issue about project task</t>
+  </si>
+  <si>
+    <t>Week 8 activity</t>
+  </si>
+  <si>
+    <t>2 hour in merging the application in Github and working in one project at time</t>
+  </si>
+  <si>
+    <t>2 hour creating angular login menu components and authorize api</t>
+  </si>
+  <si>
+    <t>1 hour reading about how login authentication works</t>
+  </si>
+  <si>
+    <t>3 hours spending time in generating the login functionality and working on crud operations</t>
+  </si>
+  <si>
+    <t>2 hour writing the assignment task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour reading how crud operation works with web api angular </t>
+  </si>
+  <si>
+    <t>3 hours implementing the admin panel specific roles and generating the crud operations with web api</t>
+  </si>
+  <si>
+    <t>1 hour team session on discussing about assignment task</t>
+  </si>
+  <si>
+    <t>1 hour team session on weekly task allocation</t>
+  </si>
+  <si>
+    <t>1 hours team session on how to apply logics for specific task</t>
   </si>
 </sst>
 </file>
@@ -1543,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB137BFC-E9EC-4B9D-ABAD-30A1515BBB95}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1783,36 +1882,726 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F85D98B-54C2-4B6C-85AF-1A2FCA741106}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30899584-769A-4F80-A7C4-F926AEFFC266}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4466716B-5E3F-4CAF-8CBA-B9FBE6E00471}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
